--- a/excel/products.xlsx
+++ b/excel/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.projects\sistech-web\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965E4C81-B070-442F-B246-72416CC1009C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1145168-3A69-4C33-BA21-F1B3B00BC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{F891E0BC-13C6-45F4-8F6C-59718D4C85EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{F891E0BC-13C6-45F4-8F6C-59718D4C85EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="209">
   <si>
     <t>name</t>
   </si>
@@ -51,20 +56,620 @@
     <t>description</t>
   </si>
   <si>
-    <t>Samsung SSD 980 250GB M.2</t>
-  </si>
-  <si>
-    <t>Sm-SSD980-250GB</t>
-  </si>
-  <si>
-    <t>SAMSUNG</t>
+    <t>Aruba Instant On 1430 5G Switch</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 1430 8G Switch</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 1430 8G Class4 PoE 64W Switch</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 1430 16G Switch</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 1430 16G Class4 PoE 124W Switch</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 1430 24G Sw</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 1430 26G 2SFP Switch</t>
+  </si>
+  <si>
+    <t>R8R44A</t>
+  </si>
+  <si>
+    <t>R8R45A</t>
+  </si>
+  <si>
+    <t>R8R46A</t>
+  </si>
+  <si>
+    <t>R8R47A</t>
+  </si>
+  <si>
+    <t>R8R48A</t>
+  </si>
+  <si>
+    <t>R8R49A</t>
+  </si>
+  <si>
+    <t>R8R50A</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>JL810A</t>
+  </si>
+  <si>
+    <t>JL811A</t>
+  </si>
+  <si>
+    <t>JL812A</t>
+  </si>
+  <si>
+    <t>JL813A</t>
+  </si>
+  <si>
+    <t>JL814A</t>
+  </si>
+  <si>
+    <t>JL815A</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1830 8G Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1830 8G 65W Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1830 24G 2SFP Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1830 24G 2SFP 195W Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1830 48G 4SFP Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1830 48G 4SFP 370W Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1930 8G 2SFP Switch</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1930 8G 2SFP 124W Switch</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1930 24G 4SFP+ Switch</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1930 24G 4SFP+ 195W Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1930 24G 4SFP+ 370W Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1930 48G 4SFP+ Switch</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1930 48G 4SFP+ 370W Sw</t>
+  </si>
+  <si>
+    <t>JL680A</t>
+  </si>
+  <si>
+    <t>JL681A</t>
+  </si>
+  <si>
+    <t>JL682A</t>
+  </si>
+  <si>
+    <t>JL683B</t>
+  </si>
+  <si>
+    <t>JL684B</t>
+  </si>
+  <si>
+    <t>JL685A</t>
+  </si>
+  <si>
+    <t>JL686B</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1960 8P CL4 4P SR CL6 POE 2P 10G 2P SFP+</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1960 12XT 4XF Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1960 24G 2XT 2XF Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1960 24G 2XT 2XF 370W Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1960 48G 2XT 2XF Sw</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1960 48G 2XT 2XF 600W Sw</t>
+  </si>
+  <si>
+    <t>S0F35A</t>
+  </si>
+  <si>
+    <t>JL805A</t>
+  </si>
+  <si>
+    <t>JL806A</t>
+  </si>
+  <si>
+    <t>JL807A</t>
+  </si>
+  <si>
+    <t>JL808A</t>
+  </si>
+  <si>
+    <t>JL809A</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1G SFP RJ45 T 100m Cat5e XCVR</t>
+  </si>
+  <si>
+    <t>Aruba IOn 1G SFP LC SX 500m MMF XCVR</t>
+  </si>
+  <si>
+    <t>HPE NW ION 1G LX SFP LC 10km SMF XCVR</t>
+  </si>
+  <si>
+    <t>Aruba IOn 10G SFP+ LC SR 300m MMF XCVR</t>
+  </si>
+  <si>
+    <t>HPE NW ION 10GBASE-T RJ45 30m Cat6A XCVR</t>
+  </si>
+  <si>
+    <t>HPE NW ION 10G SFP+ LC LR 10km SMF XCVR</t>
+  </si>
+  <si>
+    <t>R9D17A</t>
+  </si>
+  <si>
+    <t>R9D16A</t>
+  </si>
+  <si>
+    <t>S0G20A</t>
+  </si>
+  <si>
+    <t>R9D18A</t>
+  </si>
+  <si>
+    <t>S0G18A</t>
+  </si>
+  <si>
+    <t>S0G21A</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP11 (RW) Access Point</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP11D (RW) Access Point</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP12 (RW) Access Point</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP15 (RW) Access Point</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP21 (RW) Wi-Fi 6 AP</t>
+  </si>
+  <si>
+    <t>Instant On AP22 (RW) Access Point</t>
+  </si>
+  <si>
+    <t>Instant On AP22D (RW) Access Point</t>
+  </si>
+  <si>
+    <t>Instant On AP25 (RW) 4x4 Wi-Fi 6 AP</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP27 (RW) Wi-Fi 6 AP</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP (RW) AP32 Wi-Fi 6E AP</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP11 (EU) Bundle</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP11D (EU) Bundle</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP12 (EU) Bundle</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP21 (RW) AP Bundle</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP21 (RW) AP 5 pack</t>
+  </si>
+  <si>
+    <t>Instant On AP22 with 12V PSU EU Bundle</t>
+  </si>
+  <si>
+    <t>Instant On AP25 (EU) Bundle</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP27 (EU) AP Bundle</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP Bdl w/PSU (RW) AP32 Wi-Fi 6E</t>
+  </si>
+  <si>
+    <t>HPE NW ION AP 5Pk (RW) AP32 Wi-FI 6E</t>
+  </si>
+  <si>
+    <t>R2W96A</t>
+  </si>
+  <si>
+    <t>R2X16A</t>
+  </si>
+  <si>
+    <t>R2X01A</t>
+  </si>
+  <si>
+    <t>R2X06A</t>
+  </si>
+  <si>
+    <t>S1T09A</t>
+  </si>
+  <si>
+    <t>R4W02A</t>
+  </si>
+  <si>
+    <t>S1U76A</t>
+  </si>
+  <si>
+    <t>R9B28A</t>
+  </si>
+  <si>
+    <t>S1T37A</t>
+  </si>
+  <si>
+    <t>S1T23A</t>
+  </si>
+  <si>
+    <t>R3J22A</t>
+  </si>
+  <si>
+    <t>R3J26A</t>
+  </si>
+  <si>
+    <t>R3J24A</t>
+  </si>
+  <si>
+    <t>S1T15A</t>
+  </si>
+  <si>
+    <t>S1T18A</t>
+  </si>
+  <si>
+    <t>R6M50A</t>
+  </si>
+  <si>
+    <t>R9B33A</t>
+  </si>
+  <si>
+    <t>S1T42A</t>
+  </si>
+  <si>
+    <t>S1T29A</t>
+  </si>
+  <si>
+    <t>S1T32A</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 802.3af POE Midspan 15.4W</t>
+  </si>
+  <si>
+    <t>Aruba Instant On 802.3at POE Injector 30W</t>
+  </si>
+  <si>
+    <t>Aruba Instant On AP22 flush mount sleeve</t>
+  </si>
+  <si>
+    <t>Instant On AP25 Flush Mount Sleeve</t>
+  </si>
+  <si>
+    <t>R8W31A</t>
+  </si>
+  <si>
+    <t>R9M77A</t>
+  </si>
+  <si>
+    <t>R6P90A</t>
+  </si>
+  <si>
+    <t>R9B36A</t>
+  </si>
+  <si>
+    <t>Aruba 6000 48G CL4 POE 4SFP 740W</t>
+  </si>
+  <si>
+    <t>Aruba 6000 48G CL4 4SFP 370W Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6000 48G 4SFP Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6000 24G CL4 4SFP 370W Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6000 24G 4SFP Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6000 12G CL4 2SFP 139W Swch</t>
+  </si>
+  <si>
+    <t>R9Y03A</t>
+  </si>
+  <si>
+    <t>R8N85A</t>
+  </si>
+  <si>
+    <t>R8N86A</t>
+  </si>
+  <si>
+    <t>R8N87A</t>
+  </si>
+  <si>
+    <t>R8N88A</t>
+  </si>
+  <si>
+    <t>R8N89A</t>
+  </si>
+  <si>
+    <t>Aruba 6100 48G CL4 POE 4SFP+ 740W Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6100 48G CL4 4SFP+ 370W Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6100 48G 4SFP+ Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6100 24G CL4 4SFP+ 370W Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6100 24G 4SFP+ Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6100 12G CL4 2SFP+ 139W Swch</t>
+  </si>
+  <si>
+    <t>R9Y04A</t>
+  </si>
+  <si>
+    <t>JL675A</t>
+  </si>
+  <si>
+    <t>JL676A</t>
+  </si>
+  <si>
+    <t>JL677A</t>
+  </si>
+  <si>
+    <t>JL678A</t>
+  </si>
+  <si>
+    <t>JL679A</t>
+  </si>
+  <si>
+    <t>Aruba 6200F 12G CL4 POE 2G/2SFP 139W Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6200F 24G 4SFP+ Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6200F 24G CL4 4SFP+370W Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6200F 48G 4SFP+ Swch</t>
+  </si>
+  <si>
+    <t>Aruba 6200F 48G CL4 4SFP+370W Swch</t>
+  </si>
+  <si>
+    <t>HPE ANW 6200F 48G C4 4SFP+740W Sw</t>
+  </si>
+  <si>
+    <t>R8Q72A</t>
+  </si>
+  <si>
+    <t>JL724B</t>
+  </si>
+  <si>
+    <t>JL725B</t>
+  </si>
+  <si>
+    <t>JL726B</t>
+  </si>
+  <si>
+    <t>JL727B</t>
+  </si>
+  <si>
+    <t>JL728B</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-503 (RW) Campus AP</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-503 (RW10) Campus AP</t>
+  </si>
+  <si>
+    <t>Aruba AP-505 (RW) Unified AP</t>
+  </si>
+  <si>
+    <t>Aruba AP-503H (RW) Unified AP</t>
+  </si>
+  <si>
+    <t>Aruba AP-505H (RW) Unified AP</t>
+  </si>
+  <si>
+    <t>Aruba AP-515 (RW) Unified AP</t>
+  </si>
+  <si>
+    <t>Aruba AP-535 (RW) Unified AP</t>
+  </si>
+  <si>
+    <t>Aruba AP-555 (RW) Unified AP</t>
+  </si>
+  <si>
+    <t>Aruba AP-615 (RW) Campus AP Wi-FI 6E</t>
+  </si>
+  <si>
+    <t>Aruba AP-635 (RW) Campus AP Wi-Fi 6E</t>
+  </si>
+  <si>
+    <t>Aruba AP-655 (RW) Campus AP Wi-Fi 6E</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-735 (RW) Campus AP Wi-Fi 7</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-735 (RW) 5pk Campus AP Wi-Fi 7</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-755 (RW) Campus AP Wi-Fi 7</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-755 (RW) 5pk Campus AP Wi-Fi 7</t>
+  </si>
+  <si>
+    <t>R8M98A</t>
+  </si>
+  <si>
+    <t>S1E83A</t>
+  </si>
+  <si>
+    <t>R2H28A</t>
+  </si>
+  <si>
+    <t>R3V36A</t>
+  </si>
+  <si>
+    <t>R3V46A</t>
+  </si>
+  <si>
+    <t>Q9H62A</t>
+  </si>
+  <si>
+    <t>JZ336A</t>
+  </si>
+  <si>
+    <t>JZ356A</t>
+  </si>
+  <si>
+    <t>R7J49A</t>
+  </si>
+  <si>
+    <t>R7J27A</t>
+  </si>
+  <si>
+    <t>R7J38A</t>
+  </si>
+  <si>
+    <t>S1G42A</t>
+  </si>
+  <si>
+    <t>S0H12A</t>
+  </si>
+  <si>
+    <t>S1G84A</t>
+  </si>
+  <si>
+    <t>S0H10A</t>
+  </si>
+  <si>
+    <t>S3J26A</t>
+  </si>
+  <si>
+    <t>R6P67A</t>
+  </si>
+  <si>
+    <t>R3K01A</t>
+  </si>
+  <si>
+    <t>R3J18A</t>
+  </si>
+  <si>
+    <t>S0J42A</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-POE-BT10 1p 10G 60W Injctr</t>
+  </si>
+  <si>
+    <t>AP-POE-ATSR 1P SR 802.3at 30W Midspan</t>
+  </si>
+  <si>
+    <t>AP-AC2-48C 48V/50W AC/DC pwr adptr C</t>
+  </si>
+  <si>
+    <t>AP-MNT-D AP mount bracket individual D</t>
+  </si>
+  <si>
+    <t>HPE ANW AP-600H-MNT1 Mount Kit</t>
+  </si>
+  <si>
+    <t>Aruba 10G SFP+ LC SR 300m MMF XCVR</t>
+  </si>
+  <si>
+    <t>Aruba 10G SFP+ LC LR 10km SMF XCVR</t>
+  </si>
+  <si>
+    <t>Aruba 1G SFP RJ45 T 100m Cat5e XCVR</t>
+  </si>
+  <si>
+    <t>Aruba 1G SFP LC SX 500m MMF XCVR</t>
+  </si>
+  <si>
+    <t>Aruba 1G SFP LC LX 10km SMF XCVR</t>
+  </si>
+  <si>
+    <t>Aruba 10G SFP+ to SFP+ 1m DAC Cable</t>
+  </si>
+  <si>
+    <t>Aruba 10G SFP+ to SFP+ 3m DAC Cable</t>
+  </si>
+  <si>
+    <t>J9150D</t>
+  </si>
+  <si>
+    <t>J9151E</t>
+  </si>
+  <si>
+    <t>J8177E</t>
+  </si>
+  <si>
+    <t>J4858D</t>
+  </si>
+  <si>
+    <t>J4859D</t>
+  </si>
+  <si>
+    <t>J9281D</t>
+  </si>
+  <si>
+    <t>J9283D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +681,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,11 +720,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,20 +1062,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416B7984-7007-4626-A222-1C878EEBFBF2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,23 +1101,1821 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>650105</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>1022909</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>895000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>2932009</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>2199742</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>3554062</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>2787453</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>3432219</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>1588904</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>3415294</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>3835359</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>6090869</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>6811633</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>10255062</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>2125497</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>4051593</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>4520335</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>8079009</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>10569589</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>9040598</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>12788273</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>17442121</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <v>24730031</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <v>11529995</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <v>14424812</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>19231010</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>25972449</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <v>840892</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>633903</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <v>970260</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
+        <v>1280743</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4">
+        <v>5161783</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
+        <v>1746468</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
+        <v>1733531</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>2445055</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <v>168178</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <v>3428252</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <v>2304368</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
+        <v>3056319</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>2988401</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
+        <v>3927936</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
+        <v>4378298</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
+        <v>4378298</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <v>2056951</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
+        <v>2768475</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <v>3702669</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <v>2643959</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <v>11000323</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <v>3428252</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4">
+        <v>4052453</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4">
+        <v>5215148</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4">
+        <v>4705761</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4">
+        <v>21345720</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4">
+        <v>386810</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
+        <v>788336</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4">
+        <v>151199</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4">
+        <v>178690</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4">
+        <v>60929058</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4">
+        <v>32181628</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4">
+        <v>20045738</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4">
+        <v>21078579</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4">
+        <v>11094442</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4">
+        <v>10061600</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4">
+        <v>73839580</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
+        <v>47846395</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4">
+        <v>38292609</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4">
+        <v>31406997</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4">
+        <v>26070648</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4">
+        <v>16086511</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4">
+        <v>23230333</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4">
+        <v>42854327</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4">
+        <v>51547412</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4">
+        <v>62822601</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4">
+        <v>78487368</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4">
+        <v>97508870</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4">
+        <v>5121174</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4">
+        <v>51168703</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4">
+        <v>8125022</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4">
+        <v>5783914</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4">
+        <v>8125022</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4">
+        <v>12790024</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4">
+        <v>17455026</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4">
+        <v>20785941</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4">
+        <v>10371453</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4">
+        <v>14537248</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4">
+        <v>18892398</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4">
+        <v>17170995</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4">
+        <v>85811937</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4">
+        <v>25778009</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4">
+        <v>128847011</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4">
+        <v>2539070</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4">
+        <v>1549263</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4">
+        <v>697168</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4">
+        <v>318460</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4">
+        <v>275425</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4">
+        <v>15225809</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4">
+        <v>36829416</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4">
+        <v>3571911</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4">
+        <v>4294901</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4">
+        <v>8942689</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4">
+        <v>1979614</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4">
+        <v>2711210</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
